--- a/тест-кейс _Авторизации  OZON_.xlsx
+++ b/тест-кейс _Авторизации  OZON_.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lena_pups\Desktop\Новая папка\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lena_pups\Desktop\Новая папка\документация\-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE7D3945-8C0F-4353-BA63-F676E29FD8E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98412D86-6CCB-4A7F-9CEB-C51035948EE0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -116,7 +116,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1" readingOrder="1"/>
@@ -126,6 +126,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -410,7 +413,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -442,11 +445,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="132" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="2" t="s">

--- a/тест-кейс _Авторизации  OZON_.xlsx
+++ b/тест-кейс _Авторизации  OZON_.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lena_pups\Desktop\Новая папка\документация\-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98412D86-6CCB-4A7F-9CEB-C51035948EE0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7159E032-9A59-43D3-B22C-DCF7D327E239}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -52,16 +52,6 @@
     <t>ID</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Перейдите на https://www.ozon.ru/
-2. Перейдите в раздел «Войти» &gt; «Войти или зарегистрироваться» 
-3. Выберите местоположение 
-4. Введите номер телефона 
-5. Нажмите кнопку "Войти"
-6. Введите код 
-7. Выйти из системы
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">1. Открывается главная страница 
 2. Открывается окно регистрации и авторизации
 3. Открывается выпадающее меню с местоположением. Пользователь может выбрать местоположение 
@@ -74,6 +64,16 @@
   <si>
     <t>Авторизация пользователя с помощью телефона
 (позитивная проверка)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Перейти на https://www.ozon.ru/
+2. Перейти в раздел «Войти» &gt; «Войти или зарегистрироваться» 
+3. Выбрать местоположение 
+4. Ввести номер телефона 
+5. Нажать кнопку "Войти"
+6. Ввести код 
+7. Выйти из системы
+</t>
   </si>
 </sst>
 </file>
@@ -413,7 +413,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -445,12 +445,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="132" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>1</v>
@@ -459,10 +459,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
